--- a/data/trans_bre/P31_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +545,19 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Brecha de género relativa</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Brecha de género relativa</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +632,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,64%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,4%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -642,32 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 2,36</t>
+          <t>-5,17; 2,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,86</t>
+          <t>-1,95; 5,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,59</t>
+          <t>-3,12; 3,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 2,76</t>
+          <t>0,0; 10,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,79</t>
+          <t>-4,74; 2,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,09</t>
+          <t>0,48; 7,54</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 3,03</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 5,94</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 4,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 13,02</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 2,74</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 9,09</t>
         </is>
       </c>
     </row>
@@ -684,32 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>-2,5</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,39%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
         </is>
       </c>
     </row>
@@ -722,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 3,17</t>
+          <t>-4,84; 3,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 3,89</t>
+          <t>-4,05; 3,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 6,6</t>
+          <t>-1,4; 7,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 3,75</t>
+          <t>0,48; 12,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 4,49</t>
+          <t>-2,33; 10,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 7,67</t>
+          <t>-9,95; 4,08</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 4,23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 4,48</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 8,52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 15,7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 12,15</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; 4,66</t>
         </is>
       </c>
     </row>
@@ -764,32 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,58%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,16%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,49%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,32 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 4,76</t>
+          <t>-10,14; 5,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 7,96</t>
+          <t>-4,06; 8,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 6,44</t>
+          <t>-7,63; 7,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 5,34</t>
+          <t>-10,62; 9,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 9,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 7,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-10,78; 6,56</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 10,06</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 8,95</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-11,55; 12,1</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-1,33%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -882,44 +1140,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 1,21</t>
+          <t>-3,94; 1,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,35</t>
+          <t>-1,72; 3,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,36</t>
+          <t>-1,63; 3,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 1,42</t>
+          <t>1,2; 8,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,86</t>
+          <t>-3,4; 2,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,79</t>
+          <t>-0,78; 5,28</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 1,59</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 3,75</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 4,04</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 10,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 2,79</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 6,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P31_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,12</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,86</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-0,12%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>6,39%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-1,4%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>4,5%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.842298500386963</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.478127667500972</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1220573591804941</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.990589303679583</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-1.253692883414692</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>3.960052280765336</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.02107141989811565</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.01701793749446863</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.001350347662849225</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.06209192983834773</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.01398157205656533</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.04618852327849839</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,17; 2,57</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,95; 5,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 3,72</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,11</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 2,39</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 7,54</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 3,03</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 5,94</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-3,38; 4,24</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 13,02</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 2,74</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 9,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.333799962917869</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.720951567395789</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.898986351784021</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.02086169080734893</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.735808749127381</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.5044364112498547</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.05972987497509395</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.01902536985420621</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.03135957239747082</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.0005357896281215415</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.05161423012642535</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.005597807326964693</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.072299468076092</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.180246161422643</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.035507404536636</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.05804503059854</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.394590106858431</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>7.691692279484862</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.02434759687794435</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.06162485286959933</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.04603520060854814</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.1299714443839059</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.02741763304360696</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.09233934547838872</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,5</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,5</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,39%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-0,08%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,75%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>6,67%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,89%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-2,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 3,67</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,05; 3,88</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 7,15</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 12,14</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 10,31</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-9,95; 4,08</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-5,35; 4,23</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-4,47; 4,48</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 8,52</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 15,7</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 12,15</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-10,86; 4,66</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.220963024854294</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1759475390163079</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.412102786340375</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.672176973840381</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.429738587332953</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-2.746463884995209</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.01380171405494963</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.001966700232152914</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.02707690431150366</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.06886794847731106</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.03887686003290199</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.03032659751439056</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,35</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-2,58%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,04%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-1,16%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-0,49%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.42727871952713</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.1396020562216</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.132132454067847</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.8616137434288105</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.32654026229582</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-10.62300305291127</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.06056527411132829</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.04542059956253931</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.01254329418804597</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.01053294623531225</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.02648821937889415</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.1168691296748592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,14; 5,59</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; 8,52</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; 7,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,62; 9,71</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-10,78; 6,56</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 10,06</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-8,24; 8,95</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-11,55; 12,1</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.708499176347313</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.86813488713305</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.110063042791209</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.27443248521464</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>10.30848647340511</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>3.717857483481743</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.03123830749763261</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.04384633276054239</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.08333002387460996</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1613444549183849</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.1214777442081215</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.04189334157272421</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-1,33%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,89%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-0,23%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>2,69%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.143695067266293</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.16327144315982</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.350500391281406</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.487239025317121</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.01296443794274635</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.02398008669656172</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.01502316309857286</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.005665036437298251</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,94; 1,39</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 3,25</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 3,56</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 8,27</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 2,45</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 5,28</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 1,59</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 3,75</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 4,04</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 10,38</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 2,79</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 6,18</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.685706714917537</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.884349649016051</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.249536958676709</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.70814704091361</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.07078085558451609</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.04097969498640113</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.08859028063505966</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1206297881208429</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.38786312993885</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.19598425940522</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.390786952384194</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.730359421983465</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.1705069678053274</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1101738718374884</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.08775101376418415</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1222360963209573</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.286811153911283</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.8511016627690937</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.855561810261829</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.571544127304039</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.2077632873965451</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>2.358843376956632</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.01463287086158616</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.009637417232597064</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.009526792786005522</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.05584732939277153</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.002326078637139186</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.0271367221247706</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.03114403944884</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.717022848798224</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.54668151540607</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.183663040652738</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.402639466399651</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.8248474886484627</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.04515187492548962</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.01913863383340766</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.01694254761055109</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.01399921661685559</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.03730971634723726</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.008942741643472175</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.7201510655122</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.31477833199264</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.607601799229283</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.275902320551449</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.4531559547858</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>5.188892937434092</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.01986158407349663</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.03833864725752248</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.04149045475004141</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.1033764144751525</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.02789760868496785</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.06163313632885947</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
